--- a/huawei/Huawei.xlsx
+++ b/huawei/Huawei.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>唤*******</t>
+          <t>李*******</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>抖音也是无敌了。中间一个星期没拿到手机回来告诉我账号丢了，好不容易找回来显示我账号有风险，必须要人脸识别，真的无语了</t>
+          <t>更新了以后一直闪退一直闪退</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -469,29 +469,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.3.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>更新 闪退 闪退</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Y*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>呜呜呜，宝宝为什么我发不了动图？是因为人家不配吗？真的伤心了</t>
+          <t>非常感谢抖音平台，特别好，也很人性化，比我还懂我的喜欢</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -499,89 +504,104 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.9.0</t>
+          <t>25.0.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>非常感谢 抖音 平台 特别 人性化 懂 喜欢</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>梦*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>抖音出问题，哪天别人用我抖音抢游戏礼包需要加粉丝团，充了钱，以前我只看动漫的，不会出现各种直播，现在动漫推荐不出来了，全是直播推荐，客服留言也没有用，我都拉黑推荐直播1000多个人了！如果这个问题解决不了，我只能换个软件了！</t>
+          <t>为什么一直显示更新中？</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>显示 更新 中</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>思*******</t>
+          <t>鸽*******</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>同设备没有一个评论吗,为什么平板没有视频弹幕,啊！</t>
+          <t>新入手的华为p70，编辑视频的时候卡帧，从没有遇到过这样的问题，太扯了</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>新 入手 华为 p70 编辑 视频 卡帧 太扯</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>依*******</t>
+          <t>M*******</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>一点都不满意，他一进抖音就会退出</t>
+          <t>占用存储太大了 还没办法清理 莫非只有精彩卸载处理吗</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -589,29 +609,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>占用 存储 太大   办法 清理   精彩 卸载</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>不*******</t>
+          <t>m*******</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>为什么没有弹幕，怎么没有弹幕呢</t>
+          <t>我剪映都开年会员了还让我必须抖音登录，扫码扫四五次不是卡死就是让我再扫😅 发验证码也是输入进去没反应了😅 别人家app怎么扫码一次就过呢？你们什么土豆服务器，赶紧的优化吧</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -619,7 +644,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,78 +655,93 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>剪映 开年 会员 抖音 登录 扫码 扫 四五次 卡死 扫   发 验证码 输入   家 app 扫码 土豆 服务器 赶紧 优化</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>欣*******</t>
+          <t>月*******</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e？我请问呢我动图键又没了动不动就要重新登陆</t>
+          <t>不是 我不想更新你 我就一会没看手机你自己擅作主张更新个啥啊</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  不想 更新   一会 手机 擅作主张 更新</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>每*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>最好用的短视频app</t>
+          <t>？？？为什么账号登不了？为什么每次人脸识别都不通过抖音？你个人机。。，一会儿说操作频繁，一会说要在良好的环境测人脸，。这做的什么呀，我请问？一颗心都不想给</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>账号 登 每次 人脸识别 抖音 机 一会儿 说 操作 频繁 一会 说 环境 测 人脸 做 请问 一颗 心 不想</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>m*******</t>
+          <t>武*******</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>手机号登陆了为啥还要用人脸识别啊老弟</t>
+          <t>临时返回手机界面，再进去刚刚看的视频就没了，感觉还不如没更新前的了，更新前临时返回界面再进去，还是原来的看的视频</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -709,29 +749,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.0.0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>临时 返回 手机 界面 刚刚 视频 感觉 更新 前 更新 前 临时 返回 界面 视频</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>和*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>强制实名认证，我绑着电话号码官方网给我解释</t>
+          <t>这个抖音，你在商城那里买东西的话，退款的话，明明退了差不多三块，却没想到变成了一块，怎么的？还收两块手续费呗</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -739,59 +784,69 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>抖音 商城 买 东西 退款 明明 退 三块 没想到 一块 收 两块 手续费</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>h*******</t>
+          <t>雨*******</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>满意(*^ω^*)／</t>
+          <t>华为手机的抖音那个加号非常的亮，烧屏。以前小米手机的加号就很暗。</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>华为 手机 抖音 加号 亮 烧屏 小米 手机 加号 暗</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>玛*******</t>
+          <t>袊*******</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>第二个号愿我自己，那第一个号凭什么无缘无故没了，显示安全还登不上！还有，有时候点赞，哪天去官方视频一看，一批一批视点赞都消失了，有时候只剩下收藏！现在要认证，微信也登不上……而且那里面有好多重要的东西！！你让我怎么办！！！！</t>
+          <t>主界面为什么要有这么多花里胡哨的东西，还多是高亮显示？咋的你们跟手机厂商有合约，烧屏多少台有指标？</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -799,29 +854,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>主 界面 花里胡哨 东西 高亮 显示 手机 厂商 合约 烧屏 台有 指标</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2*******</t>
+          <t>林*******</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>启动速度和卡顿，动画流畅度还有待优化啊！（给个五星鼓励一下吧）</t>
+          <t>为什么我看直播的时候全屏之后没有弹幕那个设置了？</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -829,59 +889,69 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>直播 全屏 弹幕 设置</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>H*******</t>
+          <t>柏*******</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>为什么没有推荐功能</t>
+          <t>抖音非常好，非常棒，我喜欢❤❤</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.7.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>抖音 棒 喜欢</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>李*******</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>抖音，我是好脸给你太多了吗，搜索词条给我整这</t>
+          <t>什么玩意 更新完分享只有四个人更多里面也不是按照聊天顺序 想分享视频人都找不到</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -889,29 +959,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>玩意   更新 完 分享 四个 聊天 顺序   想 分享 视频 找 不到</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>花*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>抖音的隐私设置能不能做好些？把我推荐给可能认识的人这个功能就不能出一个关闭选项？真是烦。而且也不要向我推荐可能认识的人，我就想安安静静刷抖音！</t>
+          <t>里面的草稿视频保存3次以上就会乱码，服了
+还有现在更新之后，最新版本里面编辑视频不能加穿插特效了，选的音乐也不能编辑了，太可恶了
+内存大点无所谓功能补上就行啊，功能还少了
+更新后消息列表跑下面了...</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -919,7 +997,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -930,56 +1008,66 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>草稿 视频 保存 3 次 乱码 服 更新 最新 版本 编辑 视频 加 穿插 特效 选 音乐 编辑 太 可恶 内存 点 无所谓 功能 补上 行 功能 还少 更新 消息 列表 跑 本来 侧边 习惯 改能 设置 设置 选项 选择 挺好用</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>小*******</t>
+          <t>年*******</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>不是恶意差评  实在是体验太差了  现在打开抖音一定跳转商城真恶心</t>
+          <t>拍视频就好好拍视频吧，有的视频打广告真的让人厌烦</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>28.8.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>拍 视频 好好 拍 视频 视频 打广告 真的 厌烦</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>有时候卡得返回也返回不了，偶尔连点赞评论都点不了。。</t>
+          <t>差评差评差评差评差评差评差评！！凭什么封我号！！！抖音差评！！！没有抖音让我怎么活你让我怎么活！</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -990,18 +1078,23 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>差评 差 评差 评差 评差 评差 评差 评凭 封 号 抖音 差评 抖音</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>遇*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>已经视频还可以连播  现在说什么要登入电脑或者平板才可以。什么意思要是没电脑 平板的人视频都连播不了。可惜没0星😁</t>
+          <t>视频一卡一卡，审核视频几小时</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1009,7 +1102,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1020,26 +1113,31 @@
       <c r="F20" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>视频 一卡 一卡 审核 视频 几小时</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9*******</t>
+          <t>蛋*******</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>你还自动给我更新上了？！</t>
+          <t>让我一直验证身份干嘛，取消了一直弹，我都有手机号，还验证什么，体验感真的差到极致</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1050,48 +1148,58 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>验证 身份 干嘛 取消 弹 手机号 验证 体验 感 真的 差到 极致</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>h*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>骗子软件，体验极差，7天还没到马上就要自动签收了。你们是真牛。</t>
+          <t>抖音怎么老要更新的</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024/06/01</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28.7.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>抖音 老要 更新</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>赫*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>活动参加不了客服说等几天就好了，结果一个星期了我去问，又说是活动系统检查到不是同一设备 就不行 真的无语死了 ，客服就一下推脱，真下头</t>
+          <t>mate60pro+刚更新的版本，文字怎么比画面晚出来半秒啊，大家有没有一样的啊</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1099,59 +1207,69 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>mate60pro 更新 版本 文字 画面 晚 半秒 有没有</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>锦*******</t>
+          <t>巨*******</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>为什么打开就是推荐页面？很多不感兴趣的东西老是推荐给我，没有屏蔽开关。能不能停留在关注的朋友页面？</t>
+          <t>为什么我的抖音看直播全屏的时候打不了字？</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>抖音 直播 全屏 字</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>小*******</t>
+          <t>年*******</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>为什么更新完 巨卡 其他都好好的 抖音 切视频都卡的不行</t>
+          <t>将视频添加到指定收藏夹，显示已添加到收藏夹，但是在那个收藏夹里根本找不到添加的视频</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1159,59 +1277,69 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>29.3.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>视频 添加 指定 收藏夹 显示 添加 收藏夹 收藏夹 里 找 不到 添加 视频</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>伯*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>p70p+抖音适配不完全，视频内容显示不全，内容缺失！</t>
+          <t>一上线就更新一星期一更真烦人</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>上线 更新 星期一 更真 烦人</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>小*******</t>
+          <t>今*******</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>热度你是要压的目你是要没有的，评论你是要删的，有问题你是不让说的，真的感觉抖音越来越啥掉了</t>
+          <t>为什么粉丝团那里的自动点亮没有了？为什么灯牌灭了要先花一抖钻点亮后才能送灯牌？不要跟某视频软件学好吧，你要实在没得优化了，你就别瞎优化了，没必要😒😒😒</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1219,37 +1347,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>28.4.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>粉丝团 自动 点亮 灯牌 灭 先花 一抖 钻 点亮 送灯牌 视频 软件 学好 实在 优化 瞎 优化</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>可*******</t>
+          <t>J*******</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>换了新手机后就没弹幕了，我试了搜出来的所有办法，全都没用。</t>
+          <t>bug太多了，离开直播间刷视频还有直播间声音，优化也不好。。。</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1260,26 +1393,31 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>bug 太多 离开 直播间 刷 视频 直播间 声音 优化 不好</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>绿*******</t>
+          <t>糖*******</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>为什么我更新到最新版，还是用不了AI的拍摄功能？</t>
+          <t>请告诉我为什么我的抖音不能养小火人！！！！！！！！！</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1290,18 +1428,23 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>请 告诉 抖音 养 小火</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>神*******</t>
+          <t>h*******</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>抖音就是祸害人的生活品质，抖音商城买了一些东西，结果有质量问题，申请退款，平台进入都是维护卖家的，不仅处理还慢，还维持卖家权益，有图有真相，这种服务这么差，大家请不要太抖音商城买东西，退货，退款，根本退不了</t>
+          <t>这抖音更新真勤两三天更新一次这样下去手机内存都不够用</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1309,17 +1452,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>这抖音 更新 真勤 两三天 更新 手机 内存</t>
         </is>
       </c>
     </row>
@@ -1331,15 +1479,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>希望能把画质增强这个恢复从前那个样子，感觉点了增强跟没增一样，画质也是很一般，希望能改动一下。</t>
+          <t>这个抖音我就不是说怎么没事就更新，不是优化就是更新能不能定期更新，这样是很烦人的这要是能投诉我会指定投诉的</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1350,26 +1498,31 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>抖音 说 没事 更新 优化 更新 定期 更新 烦人 投诉 我会 指定 投诉</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>猫*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>为啥莫名其妙给我封号了，神经</t>
+          <t>经常卡顿，都动不了。</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1380,6 +1533,11 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>卡顿 动</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1549,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>怎么莫名其妙推荐不了视频了啊</t>
+          <t>举报那些存在谩骂侮辱的评论，并不管用，平台并没有撤销关于这些人的评论或者是作品</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1399,7 +1557,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1410,18 +1568,23 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>举报 谩骂 侮辱 评论 平台 撤销 评论 作品</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>栀*******</t>
+          <t>我*******</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>特效都太土了，全是奶奶辈的人用的特效，好看的特效还有自己一个一个搜🙄🙄🙄</t>
+          <t>为什么要老是给我推出来美团呢，什么原因</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1429,7 +1592,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1440,56 +1603,66 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>推出 来美团 原因</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>我*******</t>
+          <t>a*******</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>莫名其妙给我限流了</t>
+          <t>看直播横屏没有弹幕了？</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>直播 横屏 弹幕</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>工*******</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>开实况功能 孤立安卓</t>
+          <t>挺好的那些说不好的人你要不要从自身找找问题抖音只会推你喜欢看的内容不要在这找存在感</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1500,18 +1673,23 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>挺 说 不好 找 找 抖音 只会 推 喜欢 内容 找 感</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>天*******</t>
+          <t>喵*******</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>抖音的评论在X5上不显示在右边，跟发布会上的描述严重不实</t>
+          <t>和有病似的，一颗星都不想给</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1519,7 +1697,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1530,26 +1708,31 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>病 一颗 星 不想</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>3*******</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>更新后卡特看不了</t>
+          <t>做视频的时候不小心点到下面的发日常，视频直接没了，能不能把下面的去掉，别设那么大</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1560,26 +1743,31 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>做 视频 小心 点到 发 日常 视频 去掉 别设</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>心*******</t>
+          <t>h*******</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>总是被杀后台，占用内存太大了吧</t>
+          <t>抖音你到底要干嘛！！！！！！为什么要撤掉我的微信支付！！！是我的微信不配吗！！！！你懂一个支付宝没怎么用过的人有多痛苦吗！！！！！！！！！微信支付回不来我不会再使用抖音商城了😭😭😭😭😭</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1590,116 +1778,136 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>抖音 干嘛 撤掉 微信 支付 微信 不配 懂 支付宝 用过 痛苦 微信 支付 回不来 抖音 商城</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>孟*******</t>
+          <t>高*******</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>能不能改进一下发照片可以改封面，为什么发照片就不能改封面。</t>
+          <t>能不能少搞点鸡肋功能，用又没人用，又搞得应用卡的死，怎么国内的应用都一个德行，自家人的韭菜就这么好割吗</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>28.9.9</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>少搞 点 鸡肋 功能 没人用 搞 卡 死 国内 德行 自家人 韭菜 好割</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>疯*******</t>
+          <t>缺*******</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>能不能把动图功能恢复啊，真的好喜欢，好喜欢的好喜欢好喜欢😭😭😭😭😭😭😭😭😭😭😭，求求了🥺，好喜欢动图功能🥺🥺🥺🥺🥺🥺🥺，除了这个之外，所抖音真的很好用！推荐推荐推荐！</t>
+          <t>能不能不老给我推土的东西，推点我关注的不行吗！！！？</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>29.8.0</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>老给 推土 东西 推点 关注 不行</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>轩*******</t>
+          <t>2*******</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>合集选项怎么看不到了</t>
+          <t>能不能出个解绑手机号啊 想换号不绑手机号不让聊天</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.0.0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>出个 解绑 手机号   想换 号 绑 手机号 不让 聊天</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>丁*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>为啥现在搜索页面进去之后再点开视频看不到评论什么的啊，空白一片，就得进主页再看才能看到，这是什么新bug难受死</t>
+          <t>为啥华为手机没有金币收入</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1710,18 +1918,23 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>为啥 华为 手机 金币 收入</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>闻*******</t>
+          <t>小*******</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>一直在自动安装，哪哪都是抖音的广告，不小心点了就自己安装。</t>
+          <t>恶毒攻击，蓄意抹黑，受害者论的黑粉见不得 颠覆三观，反正没有人管，黑粉永无止境肆意妄为横行霸道侮辱谩骂人，人心可以这么坏</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1729,59 +1942,69 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>恶毒攻击 蓄意 抹黑 受害者 黑粉   颠覆 三观 反正 人管 黑粉 永无止境 肆意妄为 横行霸道 侮辱 谩骂 人心 坏</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>h*******</t>
+          <t>初*******</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">太好玩了٩(♡㉨♡ )۶ </t>
+          <t>横屏弹幕怎么被砍了</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>横屏 弹幕 砍</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>乌*******</t>
+          <t>冰*******</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>。。。用极速版一点都不卡 我都换流量了 这个一直卡</t>
+          <t>抖音商城的店家，不需要厂家的资质授权就可以开设店铺，跟某宝的审核完全不一样。是不是意味着，卖的很多都是三无产品呢？</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1789,7 +2012,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1800,26 +2023,31 @@
       <c r="F46" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>抖音 商城 店家 厂家 资质 授权 开设 店铺 某宝 审核 意味着 卖 三无 产品</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>h*******</t>
+          <t>阿*******</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>能赚钱是能，就是金币给的少，一个金币一个的给</t>
+          <t>改不了名字，头像也是</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1830,26 +2058,31 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>改不了 名字 头像</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>我*******</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>为什么不更新个一键删除喜欢和收藏！占内存想要删除真的老费劲了😡😡😡😡</t>
+          <t>我天天点对逆水寒不感兴趣，天天推逆水寒几个意思，网易给你们钱了是吧，我点了不下十次不感兴趣逆水寒还特意加关键词，非要找我赚这钱。</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1860,18 +2093,23 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>天天点 逆水 寒 不感兴趣 天天 推 逆水 寒 几个 网易 钱 我点 十次 不感兴趣 逆水 寒 特意 加 关键词 非要 找 赚 钱</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L*******</t>
+          <t>8*******</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>只有你显示网络异常</t>
+          <t>你们一天没事干嘛？天天更新这些无聊的软件，其实我是一星也不想给的</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1879,37 +2117,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>30.0.0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>没事干 天天 更新 无聊 软件 一星 不想</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>成*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>...天天更新 服了</t>
+          <t>能不能降低版本啊，我的横屏都不能看弹幕了</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1920,26 +2163,31 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>降低 版本 横屏 弹幕</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>拿*******</t>
+          <t>y*******</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>怎么感觉更新之后，更卡，更有问题了</t>
+          <t>微信登录不了什么意思？？</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1950,26 +2198,31 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>微信 登录</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>文*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>为啥和P70不兼容啊，全是黑框，影响我观看体验啊</t>
+          <t>希望能早点针对华为设备直播画面进行优化</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1980,48 +2233,58 @@
       <c r="F52" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>希望 早点 华为 设备 直播 画面 优化</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>p*******</t>
+          <t>睿*******</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>实况！华为实况！</t>
+          <t>抖音怎么回事了，虽然还是很有趣，但是之前没这么卡呀，现在不仅打开以后音画不同步，甚至在后台运行的时候还影响得其它APP也很卡了。。。</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>抖音 怎么回事 有趣 卡 打开 音画 同步 后台 运行 影响 APP 卡</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7*******</t>
+          <t>张*******</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>这次更新的好卡，希望能像以前一样</t>
+          <t>抖音我的聊天记录为什么没了！！！！消失了！?我的回忆！……</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2029,7 +2292,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2040,26 +2303,31 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>抖音 聊天记录 消失 回忆</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>去*******</t>
+          <t>徐*******</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>为什么安卓没有动图</t>
+          <t>为什么我看直播横屏时弹幕键消失不见了，好几次重进都不行。现在的抖音越来越多毛病了，一个短视频软件老想着鼓捣网购干什么？</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2070,18 +2338,23 @@
       <c r="F55" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>直播 横屏 时 弹幕 键 消失 不见 几次 重进 不行 抖音 越来越 毛病 短 视频 软件 想着 鼓捣 网购 干什么</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>V*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>为什么3天一更新？你要夺权啊！！！</t>
+          <t>准备玩抖音，才发现多了一个实名认证、封禁账号，登陆不了就算了，还不能注销，关键是还把我实名认证占了，人工客服一堆官话，我找人工客服是让你给我解决问题，不是让你给我说官话！</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2089,7 +2362,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2100,26 +2373,31 @@
       <c r="F56" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>玩抖 音才 发现 实名 认证 封禁 账号 登陆 注销 关键 实名 认证 占 人工 客服 一堆 官话 找 人工 客服 解决问题 说 官话</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>苏*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>也不知道咋回事，这个手机抖音就是卡，清理缓存，卸载重装还是卡，别的软件否不卡，就抖音卡。</t>
+          <t>保存自己作品带水印我开了，为什么你们软件给我自动关了，返回重进就关了，这是bug吗，这样我自己的权益受到影响了</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2130,26 +2408,31 @@
       <c r="F57" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>保存 作品 水印 我开 软件 自动 关 返回 重进 就关 bug 权益 影响</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>燕*******</t>
+          <t>嗯*******</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>这个版本太卡了，卡顿的不是一星半点。刚打开视频播放一下就卡住了。切换下一个就好了</t>
+          <t>在我不知道的情况下换头像！弄的我疑神疑鬼的</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2160,26 +2443,31 @@
       <c r="F58" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>情况 下换 头像 弄 疑神疑鬼</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>初*******</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>能不能加取消朋友推荐这个功能啊老是看朋友推荐真的很烦</t>
+          <t>视频通透，值得下载</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2190,26 +2478,31 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>视频 通透 值得 下载</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>枫*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>每次打开抖音的第一条视频百分之八十会卡住画面不动，然后声音却在播放</t>
+          <t>一直显示在升级中没办法修改背景图片，找客服还找不到，真的逆天，客服跟死人一样，还搞个什么留言板，装的跟真的一样</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2220,48 +2513,58 @@
       <c r="F60" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>显示 升级 中 办法 修改 背景图片 找 客服 找 不到 真的 逆天 客服 死 搞 留言板 装 真的</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S*******</t>
+          <t>无*******</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>希望安卓系统状态栏能够尽快适配全屏</t>
+          <t>无缘无故被永久禁言，笑死🤣🤣🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>30.1.0</t>
+          <t>28.7.0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>无缘无故 永久 禁言 笑 死</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>丶*******</t>
+          <t>王*******</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>卡死了，刷着刷着卡住只有声音画面不动，然后手机就自己重启了</t>
+          <t>横屏看直播弹幕怎么没了？</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2269,47 +2572,57 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>横屏 直播 弹幕</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>纯*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>我不要朋友日常！！！就要之前的日常😭😭😭那个多好，干嘛撤掉😭😭😭感觉有时候很多更新改变没有什么用🥲还是之前的好，建议可以做个调查或者平台投票这样可以更贴合使用者想要的。</t>
+          <t>更新以后就一个黑屏只有音乐，其他的就是点赞点不了，连我的主页，朋友，消息都点不进去了</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>更新 黑屏 音乐 点赞点 主页 朋友 消息 点</t>
         </is>
       </c>
     </row>
@@ -2321,67 +2634,77 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>有时候。点进去要搜索的内容。然后就会发现评论点赞，收藏转发等等都没有了。甚至连放大缩小和暂停都不可以。只能看视频。</t>
+          <t>我觉得还不错，是个很好消磨时间的应用，挺喜欢里面的视频的，就是有些推的视频不是我想看的，总体来说还不错。推荐！！！</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>不错 消磨 时间 挺 喜欢 视频 推 视频 想 总体 不错 推荐</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>凌*******</t>
+          <t>橘*******</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>除了有时自拍的时候叠了个特效导不出来，其他都很可以</t>
+          <t>抖音是世界人民永远爱刷的软件，是中国人民的骄傲！</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>28.8.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>抖音 世界 人民 永远 爱刷 软件 中国 人民 骄傲</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>张*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>抖音商城莫名被禁言！无法与商家沟通！</t>
+          <t>照片根本看不了，也不知道为什么版本是正常的，有的能看，有的就看不了</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2389,59 +2712,69 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>照片 版本</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>睿*******</t>
+          <t>丁*******</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>真的一颗星都不想给，第一是不小心按到了青少年模式想退出登录的，后面又要输入密码，密码我都没设置，你让我输入密码，第二我的账号被盗了他之前发的所有作品我都不知道，你就把那个账号永久封禁了，你叫我去申请注销 ，他说等下那个号解封了才能注销，永久封禁你让我怎么解封？你连流量都限，不会做软件就别做行吗？什金</t>
+          <t>抖音在全屏看直播时，无法显示弹幕和不能打字。</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>抖音 全屏 直播 时 显示 弹幕 打字</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>简*******</t>
+          <t>私*******</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>把推荐可能认识的人关闭，怎么还有</t>
+          <t>吃流量吃的太多，一下了几MB的，搞我啊</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2449,29 +2782,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>吃 流量 吃 太 MB 搞</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>稼*******</t>
+          <t>h*******</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>我是来买东西的么？直接给我跳618.无语</t>
+          <t>商城都搜不了，放开点</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2479,277 +2817,322 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>4.0.0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>商城 搜 放开 点</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>生*******</t>
+          <t>4*******</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>当之不愧的国内第一短视频抖音</t>
+          <t>抖音像疯了一样 最近乱封号 本来没有违规行为 就乱禁言 说什么引流 营销 我真的无语了 能不能查查清楚再做处罚！现在都是什么人在管理抖音处罚这方面的事 一颗星都不想给！迟早抖音这个短视频被处罚乱封号给...</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>抖 音像 疯   乱 封号   本来 违规行为   乱 禁言   说 引流   营销   真的 无语   查查 做 处罚 管理 抖音 处罚 这方面 事   一颗 星 不想 抖音 短 视频 处罚 乱 封号 搞 毁   玩 抖音</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>我*******</t>
+          <t>问*******</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>建议出个素质测试，没素质的自己一个区刷视频</t>
+          <t>我真的要生气了啊，我给我互关好友的视频评论一直被吞就算了。反映情况之后我连她发的视频都看不了了？她没有屏蔽我好吗。客服还一直不回复，我请问呢？</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>真的 生气 互关 好友 视频 评论 吞 情况 发 视频 屏蔽 客服 回复 请问</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>觅*******</t>
+          <t>清*******</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>点了不感兴趣还一直推送，有毛病啊。</t>
+          <t>希望能看见，发布抖音视频后出来的效果会莫名加一层黄色的滤镜</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>希望 发布 抖 音视频 效果 莫名 加 一层 黄色 滤镜</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>留*******</t>
+          <t>h*******</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>一个抖音占我10个G内存，以后还得咋样？</t>
+          <t>把语音功能还给我们，干嘛要下架？</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>语音 功能 还给 干嘛 下架</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>M*******</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>什么时候出抖音动图！！</t>
+          <t>拜托了，恢复发语音功能吧，我的快乐少了很多🙃</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>拜托 恢复 发 语音 功能 快乐 少</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>操*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>抖音上为什么不能找商家客服？买的东西有问题去那找，多次失误为什么不给解决！</t>
+          <t>用手机扫码 电脑版怎么是验证 又失败了 哼😡😡 认证失败 哼😡😡</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>29.7.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">手机 扫码   电脑 版 验证   失败     认证 失败  </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>萌*******</t>
+          <t>尤*******</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>啥都不是，退的东西不是给人看的</t>
+          <t>有时候网好好的都进不去</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>有时候 网 好好 进不去</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>受*******</t>
+          <t>祝*******</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>能不能出一个防烧屏的功能，下面那个加号真的太容易烧屏了</t>
+          <t>最近是肿么肥事，深色模式好似反了，白天黑的晚上白的，这啥子bug啊</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>肿 肥事 深色 模式 好似 反 白天 黑 晚上 白 啥子 bug</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>太*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>一个月出现了四次屏幕点了后变成旁边的功能，开始以为是手机屏有问题，把抖音关了重开就好了，今天在划视频又发现点到赞了手指点在边上一厘米左右就变成点赞，开了手机的测屏试了显示位置是屏幕是没问题。就又杀了抖音后台重打开就正常，一个月出现四次了，莫名其妙的给点了赞</t>
+          <t>不是咱就是说能不能出个自动更新啊！！每一次都要手动更新，我就浅浅刷个视频你还给我打不开，手机动不动就发热。真的无语死好吧！！！</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2760,6 +3143,11 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>出个 自动更新 手动 更新 浅浅 刷个 视频 还给 打不开 手机 发热 真的 无语 死</t>
         </is>
       </c>
     </row>
@@ -2771,67 +3159,77 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>为什么我更新不了？</t>
+          <t>为什么直播横屏没有弹幕</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>直播 横屏 弹幕</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>气*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>刷几个视频，莫名其妙的卡 手机的问题还是软件的问题 卸载了重装还是一样</t>
+          <t>拍照的时候导不出，在评论区下载的照片也是黑的，不好用</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>拍照 导不出 评论 区 下载 照片 黑 不好</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>高*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>不是哥们我就正常跟对象聊天发私信照片，怎么就封私信一天了</t>
+          <t>为什么有些别人发视频都有人点赞，关注，评论，为什么我没有啊，别人发视频一下子上千万，为什么我的粉丝也变得越来越少，还有点赞评论也这么少呀</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2839,29 +3237,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>发 视频 有人 点赞 关注 评论 发 视频 一下子 粉丝 变得 越来越少 赞 评论 少</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>造*******</t>
+          <t>你*******</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>莫名其妙被禁发视频，理由是涉嫌赌博，笑死</t>
+          <t>千万不要在抖音上买东西，骗子太多，假货也太多了</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2869,89 +3272,104 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>抖 音上 买 东西 骗子 太 假货 太</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>L*******</t>
+          <t>那*******</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>为什么草稿箱里的作品不能选特效？</t>
+          <t>抖音极速版发信息让我退件，但我没买东西，甚至没安装极速版，请转告</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>29.9.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>抖音 极速 版发 信息 退件 买 东西 安装 极速 版请 转告</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>农*******</t>
+          <t>小*******</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>为什么我更新完还不能用特效</t>
+          <t>更新后直播间聊天字体比之前小了，但是退出账号，删除后台，重新打开后又正常了。但是再次删除后台，再打开直播间字体又变小了。请处理一下这个问题。</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>更新 直播间 聊天 字体 退出 账号 删除 后台 打开 删除 后台 打开 直播间 字体 变小 请</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>梦*******</t>
+          <t>M*******</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>内存与用太大，差不5个G以上，加个极速版，超过十个G</t>
+          <t>占内存太大了，四五个G</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2959,59 +3377,69 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>占 内存 太大 四五个 G</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>h*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>官方挺用心的。😊</t>
+          <t>拍视频会卡一帧一帧的</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>29.7.0</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>拍 视频 卡 一帧 一帧</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>神*******</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>抖音不让买东西，一直显示下单人数过多。是技术问题，还是人为封号。客服不作为，只让等。</t>
+          <t>看个直播横屏弹幕都没了真是一星都不想给</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3019,137 +3447,162 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>看个 直播 横屏 弹幕 一星 不想</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>派*******</t>
+          <t>l*******</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>我觉得挺好，连原神任务可以在这里面做</t>
+          <t>怎么更新完刷着刷着视频没声音了</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>更新 完刷 刷 视频 声音</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>硕*******</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>不实名就说不了话</t>
+          <t>抖音自己发的视频自己看会有延迟，别人看没有影响，希望可以优化一下</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>抖音 发 视频 看会 延迟 影响 希望 优化</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>m*******</t>
+          <t>考*******</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>气死我了气死我了 我的金属喷溅特效呢。</t>
+          <t>很好的希望大家可以下</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>希望</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>z*******</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>还可以吧，很卡，推荐里面全是小说之类的，而且有很多不喜欢看的东西。内存很小</t>
+          <t>爱死了！一推好玩的网友！</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>爱死 推 好玩 网友</t>
         </is>
       </c>
     </row>
@@ -3161,37 +3614,42 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>超级好 评论区的宝宝们都很有素质  就是539亿次安装里面为什么就不能多出几个我的朋友啊。。身边的全是玩黄色收音机的，一个比一个难评。</t>
+          <t>为啥我想用微信登录就显示，因微信的权限，抖音无法给您创造新的账号？？？？啥意思啊？</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>为啥 想 微信 登录 显示 因微信 权限 抖音 创造 新 账号 啥意思</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>马*******</t>
+          <t>森*******</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>能不能把下面的“加号”去掉？老是OLED屏幕烧屏，留下浅浅的残影</t>
+          <t>不是为什么有时候会被禁言啊，讨厌死了！！！</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3199,17 +3657,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>有时候 禁言 讨厌 死</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3684,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>为什么在直播间截屏扣口令扣多了，就显示账号异常，信息发不出去，到底啥时候才不会，以前都不会，现在这几个月老是这样，都无语了=_=</t>
+          <t>哈哈，神金，打广告别太过分了，sz广告连个退出都没有，中病毒了一样。好高级的软件，自动给我下了三个抖音🙄</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3229,29 +3692,34 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>神金 打广告 太过分 sz 广告 退出 中 病毒 高级 软件 自动 三个 抖音</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>花*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>不实名不给登录，服了</t>
+          <t>账号无辜被封了，申诉也没用</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3259,59 +3727,69 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>账号 无辜 封 申诉 没用</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>鱼*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>现在每次进去抖音都会闪退一次，真是越更新越不好用了</t>
+          <t>喜欢抖音平台，给我们带来了娱乐和开心！</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>1.8.3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>喜欢 抖音 平台 带来 娱乐 开心</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>M*******</t>
+          <t>奔*******</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>买的东西有运费险，但是自己去驿站退就不含运费险了，就得自己出运费，本来想着去快递柜退，结果快递柜太远了，就说去驿站吧，结果合作的驿站一个都不认识，开了个导航，找半天，显示到终点了，结果没找到，我想没办法，那就上门取件吧，然后去学校大门口等快递员等了快一个小时，终于快递员给我打电话了，说你为什么没有来菜鸟驿站？那我就想问一下，既然菜鸟驿站可以退，为什么一开始没有把这个选项给我放到驿站那呢？为了这个破事，我浪费了周末的一个下午。</t>
+          <t>进直播间每次都贝踢出去</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3319,119 +3797,139 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>进 直播间 每次 贝 踢出去</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>啥*******</t>
+          <t>1*******</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>升到30版，直播间打字主播屏上不显示，观众能看见，降回29版，也时不时的出现这问题，现在不敢更新版本了🤬🤬🤬</t>
+          <t>都挺好的，我觉得😁</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>29.9.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>挺</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>风*******</t>
+          <t>T*******</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>抖音怎么内存约越大占</t>
+          <t>狗市啊，为什么横屏看直播没弹幕了啊</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>狗市 横屏 直播 弹幕</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1*******</t>
+          <t>飞*******</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>怎么三天两头的更新。没完没了的</t>
+          <t>咱就是说这个还是可以的，这可以做大做强，展现辉煌。咱就是说不至于一颗星吧</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.1.0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>做 做 强 展现 辉煌 一颗 星</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>守*******</t>
+          <t>听*******</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>为什么不能微信登录了</t>
+          <t>什么时候能全屏刷抖音 什么时候能适配</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3439,17 +3937,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024/05/26</t>
+          <t>2024/06/02</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>30.0.0</t>
+          <t>30.2.0</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>3.2</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>全屏 刷抖音   适配</t>
         </is>
       </c>
     </row>
